--- a/data-raw/nonnecke.xlsx
+++ b/data-raw/nonnecke.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC3B2C-1931-4CCD-AFED-BA0D018730B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="9408" windowHeight="7512" activeTab="2"/>
+    <workbookView xWindow="4300" yWindow="3260" windowWidth="7590" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corn1" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,14 +77,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -120,7 +125,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -192,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,22 +370,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -439,7 +444,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -498,7 +503,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -557,7 +562,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -616,7 +621,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -675,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -734,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -793,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -852,7 +857,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -911,7 +916,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -970,7 +975,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2275,24 +2280,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3944,7 +3949,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -4062,7 +4067,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -4121,7 +4126,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4186,23 +4191,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4379,7 +4384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4497,7 +4502,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4792,7 +4797,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4910,7 +4915,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4969,7 +4974,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18</v>
       </c>
@@ -5087,7 +5092,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -5205,7 +5210,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -5382,7 +5387,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -5677,7 +5682,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -5736,7 +5741,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
@@ -5972,7 +5977,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6096,20 +6101,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6309,7 +6314,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6409,7 +6414,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -6559,7 +6564,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -6609,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -6959,7 +6964,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7015,20 +7020,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7128,7 +7133,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7178,7 +7183,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7228,7 +7233,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7278,7 +7283,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7328,7 +7333,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7528,7 +7533,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7628,7 +7633,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7678,7 +7683,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7728,7 +7733,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7934,20 +7939,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7997,7 +8002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8047,7 +8052,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8097,7 +8102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8147,7 +8152,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8197,7 +8202,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -8347,7 +8352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -8397,7 +8402,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -8497,7 +8502,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8647,7 +8652,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8697,7 +8702,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8747,7 +8752,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8853,20 +8858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -8916,7 +8921,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8966,7 +8971,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9016,7 +9021,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9216,7 +9221,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9266,7 +9271,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9366,7 +9371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9416,7 +9421,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -9466,7 +9471,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -9516,7 +9521,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
